--- a/Modelo_Relacional_V1.1.xlsb.xlsx
+++ b/Modelo_Relacional_V1.1.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kleber\OneDrive\Área de Trabalho\PIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62A67D5-04C8-45DF-8AB4-90655C7E1F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF4C75-8D4F-44AA-BB5B-E276C9DF5AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>Modelagem do Banco de Dados V1.1</t>
   </si>
@@ -309,15 +309,9 @@
     <t xml:space="preserve">    senha VARCHAR(100) NOT NULL,</t>
   </si>
   <si>
-    <t xml:space="preserve">    enderecoId INT NOT NULL,</t>
-  </si>
-  <si>
     <t xml:space="preserve">    dataCriacao DATETIME DEFAULT CURRENT_TIMESTAMP,</t>
   </si>
   <si>
-    <t xml:space="preserve">    FOREIGN KEY (enderecoId) REFERENCES enderecos(id)</t>
-  </si>
-  <si>
     <t>);</t>
   </si>
   <si>
@@ -337,6 +331,12 @@
   </si>
   <si>
     <t xml:space="preserve">    Estado VARCHAR(50),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID INT AUTO_INCREMENT PRIMARY KEY,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dataCriacao DATETIME DEFAULT CURRENT_TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -569,10 +569,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -602,8 +599,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,12 +626,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AF76"/>
+  <dimension ref="B2:AF87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:G57"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80:C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,7 +927,7 @@
     <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -985,64 +983,64 @@
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B6" s="5"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="27"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="26"/>
       <c r="AC6" s="4"/>
     </row>
     <row r="7" spans="2:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="5"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
+      <c r="AB7" s="29"/>
       <c r="AC7" s="4"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.3">
@@ -1055,34 +1053,34 @@
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="F10" s="25" t="s">
+      <c r="D10" s="25"/>
+      <c r="F10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="I10" s="25" t="s">
+      <c r="G10" s="25"/>
+      <c r="I10" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="L10" s="25" t="s">
+      <c r="J10" s="25"/>
+      <c r="L10" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="O10" s="33" t="s">
+      <c r="M10" s="25"/>
+      <c r="O10" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="U10" s="31" t="s">
+      <c r="P10" s="23"/>
+      <c r="U10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="V10" s="32"/>
-      <c r="X10" s="31" t="s">
+      <c r="V10" s="31"/>
+      <c r="X10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Y10" s="32"/>
+      <c r="Y10" s="31"/>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.3">
@@ -1467,44 +1465,44 @@
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B34" s="5"/>
-      <c r="Y34" s="15" t="s">
+      <c r="Y34" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Z34" s="16"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="17"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="16"/>
       <c r="AC34" s="4"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B35" s="5"/>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="19"/>
-      <c r="AA35" s="19"/>
-      <c r="AB35" s="20"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="19"/>
       <c r="AC35" s="4"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B36" s="5"/>
-      <c r="Y36" s="18"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="19"/>
-      <c r="AB36" s="20"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="19"/>
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B37" s="5"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="19"/>
-      <c r="AA37" s="19"/>
-      <c r="AB37" s="20"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="19"/>
       <c r="AC37" s="4"/>
     </row>
     <row r="38" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="5"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="23"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="22"/>
       <c r="AC38" s="4"/>
     </row>
     <row r="39" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1577,70 +1575,70 @@
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B48" s="5"/>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="33"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="33"/>
-      <c r="AD48" s="33"/>
-      <c r="AE48" s="33"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+      <c r="AA48" s="23"/>
+      <c r="AB48" s="23"/>
+      <c r="AC48" s="23"/>
+      <c r="AD48" s="23"/>
+      <c r="AE48" s="23"/>
       <c r="AF48" s="4"/>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B49" s="5"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="33"/>
-      <c r="AD49" s="33"/>
-      <c r="AE49" s="33"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="23"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="23"/>
+      <c r="U49" s="23"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="23"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="23"/>
+      <c r="AE49" s="23"/>
       <c r="AF49" s="4"/>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.3">
@@ -1649,42 +1647,42 @@
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B51" s="5"/>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="F51" s="24" t="s">
+      <c r="D51" s="13"/>
+      <c r="F51" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="I51" s="12" t="s">
+      <c r="G51" s="13"/>
+      <c r="I51" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="12"/>
-      <c r="L51" s="12" t="s">
+      <c r="J51" s="33"/>
+      <c r="L51" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M51" s="12"/>
-      <c r="O51" s="12" t="s">
+      <c r="M51" s="33"/>
+      <c r="O51" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="P51" s="12"/>
-      <c r="R51" s="13" t="s">
+      <c r="P51" s="33"/>
+      <c r="R51" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="S51" s="14"/>
-      <c r="U51" s="12" t="s">
+      <c r="S51" s="33"/>
+      <c r="U51" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="V51" s="12"/>
+      <c r="V51" s="33"/>
       <c r="X51" s="12" t="s">
         <v>40</v>
       </c>
       <c r="Y51" s="12"/>
-      <c r="AA51" s="24" t="s">
+      <c r="AA51" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AB51" s="24"/>
+      <c r="AB51" s="13"/>
       <c r="AF51" s="4"/>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.3">
@@ -1990,7 +1988,7 @@
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -2012,14 +2010,14 @@
         <v>85</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF64" s="4"/>
     </row>
     <row r="65" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
         <v>86</v>
@@ -2032,7 +2030,7 @@
         <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AF66" s="4"/>
     </row>
@@ -2042,7 +2040,7 @@
         <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H67" s="6"/>
       <c r="AF67" s="4"/>
@@ -2053,7 +2051,7 @@
         <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF68" s="4"/>
     </row>
@@ -2063,7 +2061,7 @@
         <v>90</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF69" s="4"/>
     </row>
@@ -2073,7 +2071,7 @@
         <v>91</v>
       </c>
       <c r="F70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AF70" s="4"/>
     </row>
@@ -2083,14 +2081,14 @@
         <v>92</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB71" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB71" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="17"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="16"/>
       <c r="AF71" s="4"/>
     </row>
     <row r="72" spans="2:32" x14ac:dyDescent="0.3">
@@ -2098,10 +2096,10 @@
       <c r="C72" t="s">
         <v>93</v>
       </c>
-      <c r="AB72" s="18"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="19"/>
-      <c r="AE72" s="20"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="18"/>
+      <c r="AE72" s="19"/>
       <c r="AF72" s="4"/>
     </row>
     <row r="73" spans="2:32" x14ac:dyDescent="0.3">
@@ -2109,39 +2107,34 @@
       <c r="C73" t="s">
         <v>94</v>
       </c>
-      <c r="AB73" s="18"/>
-      <c r="AC73" s="19"/>
-      <c r="AD73" s="19"/>
-      <c r="AE73" s="20"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="19"/>
       <c r="AF73" s="4"/>
     </row>
     <row r="74" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B74" s="5"/>
-      <c r="C74" t="s">
+      <c r="C74" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AB74" s="18"/>
-      <c r="AC74" s="19"/>
-      <c r="AD74" s="19"/>
-      <c r="AE74" s="20"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="18"/>
+      <c r="AE74" s="19"/>
       <c r="AF74" s="4"/>
     </row>
     <row r="75" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="5"/>
-      <c r="C75" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="23"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="22"/>
       <c r="AF75" s="4"/>
     </row>
     <row r="76" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="3"/>
-      <c r="C76" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2172,8 +2165,48 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="1"/>
     </row>
+    <row r="80" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="19">
     <mergeCell ref="C6:AB7"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="F10:G10"/>
@@ -2188,6 +2221,11 @@
     <mergeCell ref="C48:AE49"/>
     <mergeCell ref="AB71:AE75"/>
     <mergeCell ref="AA51:AB51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="U51:V51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
